--- a/水浒英雄传/卡牌属性.xlsx
+++ b/水浒英雄传/卡牌属性.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="盈利模式" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,97 @@
   </si>
   <si>
     <t>沉默、魔瘾者、自然平衡、冷血、比斯巨兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人花钱开包赚一笔（日常性收入）</t>
+  </si>
+  <si>
+    <t>出新冒险副本赚一笔（每年固定收入）</t>
+  </si>
+  <si>
+    <t>出新卡赚一笔（每年固定收入）</t>
+  </si>
+  <si>
+    <t>购买卡包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>境界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场入场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天梯对战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱斗模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅馆对战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+  </si>
+  <si>
+    <t>战网好友对战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友交流需加强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接加为好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友互动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低要求，做到手机端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面要求简洁明了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导要求简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期金卡动态效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能一定要注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏平衡性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可玩性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳克萨玛斯副本</t>
+  </si>
+  <si>
+    <t>前10级解锁完本职业的20张卡牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,10 +345,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -561,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1302,15 +1393,15 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -1366,17 +1457,17 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6" t="s">
+      <c r="I23" s="7"/>
+      <c r="J23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -3374,12 +3465,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3387,12 +3509,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B12:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/水浒英雄传/卡牌属性.xlsx
+++ b/水浒英雄传/卡牌属性.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
   </si>
   <si>
     <t>是否激怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超稀有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,6 +266,98 @@
   </si>
   <si>
     <t>前10级解锁完本职业的20张卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真言术：耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一个随从，每当其进行进行攻击，为你的英雄恢复4点生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级对应：无色：基本，白色：普通，蓝色：稀有，紫色：史诗，橙色：传说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛场观众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海象人图腾师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨满祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否战吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战吼：召唤一个随机图腾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励：将一个2/2的侍从置入你的手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的英雄技能会额外造成1点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄之魂、征募官、海象人图腾师、赛场观众、真言术：耀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,6 +434,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,25 +741,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC94"/>
+  <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="11.25" customWidth="1"/>
-    <col min="12" max="12" width="53" customWidth="1"/>
-    <col min="14" max="14" width="29" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="3" width="2.625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="9" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="67.875" customWidth="1"/>
+    <col min="15" max="15" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,61 +789,64 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="2"/>
+      <c r="U1" s="1"/>
       <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="5"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -762,34 +860,35 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD2" s="4"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -803,79 +902,79 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="AD3" s="4"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -889,98 +988,131 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD5" s="4"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -994,41 +1126,40 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD8" s="4"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="I9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1043,55 +1174,73 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="AD9" s="4"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="P11" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -1105,55 +1254,69 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="AD11" s="4"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -1167,24 +1330,43 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="AD13" s="4"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="P14" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -1198,8 +1380,9 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD14" s="4"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1208,7 +1391,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1229,8 +1412,9 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD15" s="4"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1239,7 +1423,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1260,8 +1444,9 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD16" s="4"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1270,7 +1455,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1291,8 +1476,9 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD17" s="4"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1301,7 +1487,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1322,8 +1508,9 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD18" s="4"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1332,7 +1519,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1353,8 +1540,9 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD19" s="4"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1363,7 +1551,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -1384,8 +1572,9 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD20" s="4"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1393,15 +1582,13 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="H21" s="4"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -1417,8 +1604,9 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD21" s="4"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1427,7 +1615,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1448,8 +1636,9 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD22" s="4"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1457,17 +1646,15 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -1483,8 +1670,9 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD23" s="4"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1493,7 +1681,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1514,8 +1702,9 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD24" s="4"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1524,7 +1713,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1545,8 +1734,9 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD25" s="4"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1554,14 +1744,16 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="H26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -1576,8 +1768,9 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD26" s="4"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1586,7 +1779,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -1607,8 +1800,9 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD27" s="4"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1616,14 +1810,18 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
+      <c r="H28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -1638,8 +1836,9 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD28" s="4"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1648,11 +1847,13 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="K29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -1669,8 +1870,9 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD29" s="4"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1679,7 +1881,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -1700,8 +1902,9 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD30" s="4"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1710,7 +1913,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -1731,8 +1934,9 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD31" s="4"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1741,7 +1945,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="I32" s="7"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -1762,8 +1966,9 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD32" s="4"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1772,7 +1977,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="I33" s="7"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -1793,8 +1998,9 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD33" s="4"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1803,7 +2009,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -1824,8 +2030,9 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD34" s="4"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1834,7 +2041,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -1855,8 +2062,9 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD35" s="4"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1865,7 +2073,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="7"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -1886,8 +2094,9 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD36" s="4"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1896,7 +2105,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="I37" s="7"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -1917,8 +2126,9 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD37" s="4"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1927,7 +2137,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -1948,8 +2158,9 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD38" s="4"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1958,7 +2169,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="I39" s="7"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -1979,8 +2190,9 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD39" s="4"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1989,7 +2201,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="I40" s="7"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -2010,8 +2222,9 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD40" s="4"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2020,7 +2233,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="I41" s="7"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -2041,8 +2254,9 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD41" s="4"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2051,7 +2265,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="I42" s="7"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -2072,8 +2286,9 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD42" s="4"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2082,7 +2297,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="I43" s="7"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -2103,8 +2318,9 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD43" s="4"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2113,7 +2329,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="I44" s="7"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -2134,8 +2350,9 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD44" s="4"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2144,7 +2361,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="I45" s="7"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -2165,8 +2382,9 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD45" s="4"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2175,7 +2393,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="I46" s="7"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -2196,8 +2414,9 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD46" s="4"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2206,7 +2425,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="I47" s="7"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -2227,8 +2446,9 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD47" s="4"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2237,7 +2457,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="I48" s="7"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -2258,8 +2478,9 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD48" s="4"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2268,7 +2489,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="I49" s="7"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -2289,8 +2510,9 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD49" s="4"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2299,7 +2521,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2320,8 +2542,9 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD50" s="4"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2330,7 +2553,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="I51" s="7"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -2351,8 +2574,9 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD51" s="4"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2361,7 +2585,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="7"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -2382,8 +2606,9 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD52" s="4"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2392,7 +2617,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="I53" s="7"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -2413,8 +2638,9 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD53" s="4"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2423,7 +2649,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+      <c r="I54" s="7"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -2444,8 +2670,9 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD54" s="4"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2454,7 +2681,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
+      <c r="I55" s="7"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -2475,133 +2702,169 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD55" s="4"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2625,8 +2888,9 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="X61" s="3"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2650,8 +2914,9 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="X62" s="3"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2675,8 +2940,9 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="X63" s="3"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2700,8 +2966,9 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X64" s="3"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2725,8 +2992,9 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X65" s="3"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2750,8 +3018,9 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X66" s="3"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2775,8 +3044,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2800,8 +3070,9 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X68" s="3"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2825,8 +3096,9 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2850,8 +3122,9 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X70" s="3"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2875,8 +3148,9 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X71" s="3"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2900,8 +3174,9 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X72" s="3"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2925,8 +3200,9 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X73" s="3"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2950,8 +3226,9 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X74" s="3"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2975,8 +3252,9 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X75" s="3"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3000,8 +3278,9 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X76" s="3"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3025,8 +3304,9 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X77" s="3"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3050,8 +3330,9 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X78" s="3"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3075,8 +3356,9 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X79" s="3"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3100,8 +3382,9 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X80" s="3"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3125,8 +3408,9 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X81" s="3"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3150,8 +3434,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3175,8 +3460,9 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X83" s="3"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3200,8 +3486,9 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X84" s="3"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3225,8 +3512,9 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X85" s="3"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3250,8 +3538,9 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X86" s="3"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3275,8 +3564,9 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X87" s="3"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3300,8 +3590,9 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X88" s="3"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3325,8 +3616,9 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X89" s="3"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3350,8 +3642,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3375,8 +3668,9 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X91" s="3"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3400,8 +3694,9 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X92" s="3"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3425,8 +3720,9 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X93" s="3"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3450,12 +3746,144 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:L23"/>
+  <mergeCells count="4">
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3475,30 +3903,30 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3511,90 +3939,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B12:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
         <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/水浒英雄传/卡牌属性.xlsx
+++ b/水浒英雄传/卡牌属性.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="211">
   <si>
     <t>费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -847,6 +847,30 @@
   </si>
   <si>
     <t>子弹上膛、德莱尼图腾师、达纳苏斯豹骑士、格斗士、恶魔融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥秘：当一个敌方随从进攻时，将其移回其拥有者的手中，并使其法力值消耗增加（2）点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻陷阱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1241,13 +1265,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE116"/>
+  <dimension ref="A1:AE117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1256,7 +1280,7 @@
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="67.5" customWidth="1"/>
+    <col min="7" max="7" width="74" customWidth="1"/>
     <col min="8" max="12" width="5.5" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
     <col min="14" max="14" width="10.375" customWidth="1"/>
@@ -2237,7 +2261,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -2262,33 +2286,29 @@
       <c r="A22" s="10">
         <v>2</v>
       </c>
-      <c r="B22" s="10">
-        <v>3</v>
-      </c>
-      <c r="C22" s="10">
-        <v>2</v>
-      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10" t="s">
-        <v>183</v>
-      </c>
+      <c r="M22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
@@ -2308,219 +2328,219 @@
       <c r="AE22" s="10"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
+      <c r="A23" s="10">
         <v>2</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="9" t="s">
+      <c r="B23" s="10">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>2</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A24" s="10">
+      <c r="N24" s="6"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A25" s="10">
         <v>3</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B25" s="10">
         <v>3</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C25" s="10">
         <v>3</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
         <v>3</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9" t="s">
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
-        <v>3</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N26" s="8"/>
+      <c r="N26" s="9"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="8">
-        <v>3</v>
-      </c>
-      <c r="C27" s="8">
-        <v>2</v>
-      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="M27" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="N27" s="8"/>
-      <c r="O27" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="O27" s="9"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
@@ -2539,488 +2559,492 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>3</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>3</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>2</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-    </row>
-    <row r="29" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8">
-        <v>3</v>
-      </c>
-      <c r="B29" s="8">
-        <v>4</v>
-      </c>
-      <c r="C29" s="8">
-        <v>4</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+    </row>
+    <row r="30" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <v>3</v>
+      </c>
+      <c r="B30" s="8">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8">
+        <v>4</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A31" s="10">
         <v>3</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B31" s="10">
         <v>2</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C31" s="10">
         <v>2</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
         <v>3</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B32" s="7">
         <v>1</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C32" s="7">
         <v>4</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
         <v>4</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B33" s="9">
         <v>3</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C33" s="9">
         <v>5</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F33" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A33" s="10">
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A34" s="10">
         <v>4</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B34" s="10">
         <v>4</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C34" s="10">
         <v>4</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A34" s="8">
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A35" s="8">
         <v>4</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B35" s="8">
         <v>5</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C35" s="8">
         <v>4</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8" t="s">
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A35" s="10">
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A36" s="10">
         <v>4</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B36" s="10">
         <v>5</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C36" s="10">
         <v>4</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F36" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A36" s="8">
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
         <v>5</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B37" s="8">
         <v>3</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C37" s="8">
         <v>3</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G37" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8" t="s">
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="Q37" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A37" s="10">
-        <v>5</v>
-      </c>
-      <c r="B37" s="10">
-        <v>5</v>
-      </c>
-      <c r="C37" s="10">
-        <v>6</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A38" s="10">
@@ -3030,27 +3054,23 @@
         <v>5</v>
       </c>
       <c r="C38" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>195</v>
-      </c>
+      <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
-      <c r="L38" s="10" t="s">
-        <v>173</v>
-      </c>
+      <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -3076,37 +3096,35 @@
         <v>5</v>
       </c>
       <c r="B39" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
+      <c r="L39" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="M39" s="10"/>
-      <c r="N39" s="10" t="s">
-        <v>134</v>
-      </c>
+      <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
@@ -3123,265 +3141,267 @@
       <c r="AE39" s="10"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="A40" s="10">
         <v>5</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="10">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10">
+        <v>3</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
         <v>5</v>
       </c>
-      <c r="C40" s="4">
+      <c r="B41" s="4">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4">
         <v>4</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E41" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F41" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G41" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4" t="s">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A41" s="6">
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A42" s="6">
         <v>5</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B42" s="6">
         <v>4</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C42" s="6">
         <v>4</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E42" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G42" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6" t="s">
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A42" s="10">
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A43" s="10">
         <v>5</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F43" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G43" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10" t="s">
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A43" s="8">
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A44" s="8">
         <v>6</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E44" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F44" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G44" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8" t="s">
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="5" t="s">
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
-        <v>6</v>
-      </c>
-      <c r="B44" s="4">
-        <v>5</v>
-      </c>
-      <c r="C44" s="4">
-        <v>5</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>6</v>
       </c>
       <c r="B45" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -3389,9 +3409,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="6"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="5" t="s">
@@ -3413,23 +3431,41 @@
       <c r="AE45" s="4"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="A46" s="4">
+        <v>6</v>
+      </c>
+      <c r="B46" s="4">
+        <v>9</v>
+      </c>
+      <c r="C46" s="4">
+        <v>7</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
+      <c r="N46" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
+      <c r="Q46" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
@@ -3443,6 +3479,7 @@
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
@@ -3682,9 +3719,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-      <c r="N54" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
@@ -3716,7 +3751,9 @@
       <c r="K55" s="6"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
+      <c r="N55" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
@@ -4439,30 +4476,36 @@
       <c r="AD77" s="4"/>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
@@ -5451,6 +5494,32 @@
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
